--- a/data/Experimental compounds.xlsx
+++ b/data/Experimental compounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jupyter_notebook\Sleep-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782E9CE8-62AA-4DC3-8683-CBB419044BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAFE56F-624D-4FBE-AC80-778172B397D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12980" yWindow="960" windowWidth="21330" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3970" yWindow="580" windowWidth="17800" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>CC1=C(C=C(C=C1)C(C)C)O</t>
   </si>
@@ -65,6 +65,13 @@
   </si>
   <si>
     <t>Methyleugenol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC(=CCCC(C)(C=C)O)C</t>
+  </si>
+  <si>
+    <t>Linalool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +99,12 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -115,9 +128,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -400,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -448,6 +467,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
